--- a/biology/Botanique/Karl_Heinrich_Mertens/Karl_Heinrich_Mertens.xlsx
+++ b/biology/Botanique/Karl_Heinrich_Mertens/Karl_Heinrich_Mertens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Heinrich Mertens, né le 17 mai 1796 à Brême et mort le 18 septembre 1830 à Kronstadt, est un naturaliste et botaniste allemand, fils du botaniste brêmois Franz Carl Mertens (1764-1831), spécialiste des algues. Karl Heinrich Mertens, quant à lui, fut le collecteur de milliers de spécimens au cours de deux expéditions pour le compte de l'Académie impériale des sciences de Saint-Pétersbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Heinrich Mertens étudie la botanique, puis s'engage comme volontaire dans la Guerre de Libération (1813-1815) contre les armées napoléoniennes et fait la connaissance en France occupée de botanistes français. Il passe ensuite quelque temps en Angleterre à l'invitation de Dawson Turner, ami de son père, puis rentre en Allemagne étudier la médecine à l'université de Göttingen et à l'université de Halle. Il exerce la médecine à Brême à partir de 1821.
 Il est appelé à Saint-Pétersbourg en 1824 pour prendre part à l'expédition d'Otto von Kotzebue, mais les conditions ne lui conviennent pas et il reste à terre dans la capitale impériale pour exercer en tant que médecin.
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le cap Mertens (64°32’N, 172°25’O) a été baptisé de son nom. Il se trouve à l'est de la péninsule de Tchoukot à la sortie des détroits Séniavine.
 Le genre Mertensia de l'embranchement des Ctenophora a été nommé en son honneur par Lesson en 1830, ainsi que la famille à laquelle il appartient, les Mertensiidae, par Agassiz en 1860.
@@ -556,7 +572,7 @@
 Parmi les espèces botaniques nommées en son honneur et qu'il a souvent collectées, l'on peut distinguer :
 (Bromeliaceae) Aechmea mertensii
 (Ericaceae) Andromeda mertensiana, nommée par Bongard en 1832
-(Orchidaceae) Corallorhiza mertensiana, nommée par Bongard en 1833[1]
+(Orchidaceae) Corallorhiza mertensiana, nommée par Bongard en 1833
 (Pinaceae) Pinus mertensiana, aujourd'hui Tsuga mertensiana, nommée par Bongard en 1832
 (Poaceae) Agrostis mertensii, nommée par Trinius en 1836</t>
         </is>
